--- a/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200317.xlsx
+++ b/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200317.xlsx
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9408" uniqueCount="3297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9408" uniqueCount="3298">
   <si>
     <t>序号</t>
   </si>
@@ -10297,6 +10297,9 @@
   <si>
     <t>意大利</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县级</t>
   </si>
 </sst>
 </file>
@@ -10738,8 +10741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11974,7 +11977,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>40</v>
+        <v>3297</v>
       </c>
       <c r="C23" s="17">
         <v>43907</v>
